--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.8647598480926</v>
+        <v>16.774728</v>
       </c>
       <c r="H2">
-        <v>12.8647598480926</v>
+        <v>50.324184</v>
       </c>
       <c r="I2">
-        <v>0.04901601831022587</v>
+        <v>0.05994606310631357</v>
       </c>
       <c r="J2">
-        <v>0.04901601831022587</v>
+        <v>0.05994606310631356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N2">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q2">
-        <v>4015.888802755838</v>
+        <v>0.6735724281119999</v>
       </c>
       <c r="R2">
-        <v>4015.888802755838</v>
+        <v>6.062151853007999</v>
       </c>
       <c r="S2">
-        <v>0.04901601831022587</v>
+        <v>7.058010984630685E-06</v>
       </c>
       <c r="T2">
-        <v>0.04901601831022587</v>
+        <v>7.058010984630683E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.8389008616113</v>
+        <v>16.774728</v>
       </c>
       <c r="H3">
-        <v>17.8389008616113</v>
+        <v>50.324184</v>
       </c>
       <c r="I3">
-        <v>0.06796799175358767</v>
+        <v>0.05994606310631357</v>
       </c>
       <c r="J3">
-        <v>0.06796799175358767</v>
+        <v>0.05994606310631356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>312.161971943165</v>
+        <v>2.854025333333333</v>
       </c>
       <c r="N3">
-        <v>312.161971943165</v>
+        <v>8.562075999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.008368558809981951</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008368558809981953</v>
       </c>
       <c r="Q3">
-        <v>5568.626470259208</v>
+        <v>47.87549867177599</v>
       </c>
       <c r="R3">
-        <v>5568.626470259208</v>
+        <v>430.879488045984</v>
       </c>
       <c r="S3">
-        <v>0.06796799175358767</v>
+        <v>0.0005016621545320745</v>
       </c>
       <c r="T3">
-        <v>0.06796799175358767</v>
+        <v>0.0005016621545320745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.2149945135452</v>
+        <v>16.774728</v>
       </c>
       <c r="H4">
-        <v>33.2149945135452</v>
+        <v>50.324184</v>
       </c>
       <c r="I4">
-        <v>0.1265524423676956</v>
+        <v>0.05994606310631357</v>
       </c>
       <c r="J4">
-        <v>0.1265524423676956</v>
+        <v>0.05994606310631356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>312.161971943165</v>
+        <v>0.1353773333333333</v>
       </c>
       <c r="N4">
-        <v>312.161971943165</v>
+        <v>0.406132</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.0003969527398046444</v>
       </c>
       <c r="Q4">
-        <v>10368.45818542968</v>
+        <v>2.270917944032</v>
       </c>
       <c r="R4">
-        <v>10368.45818542968</v>
+        <v>20.438261496288</v>
       </c>
       <c r="S4">
-        <v>0.1265524423676956</v>
+        <v>2.379575399055328E-05</v>
       </c>
       <c r="T4">
-        <v>0.1265524423676956</v>
+        <v>2.379575399055328E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.4987511799804</v>
+        <v>16.774728</v>
       </c>
       <c r="H5">
-        <v>42.4987511799804</v>
+        <v>50.324184</v>
       </c>
       <c r="I5">
-        <v>0.1619244813426119</v>
+        <v>0.05994606310631357</v>
       </c>
       <c r="J5">
-        <v>0.1619244813426119</v>
+        <v>0.05994606310631356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>312.161971943165</v>
+        <v>338.0118816666666</v>
       </c>
       <c r="N5">
-        <v>312.161971943165</v>
+        <v>1014.035645</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9911167490922156</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9911167490922157</v>
       </c>
       <c r="Q5">
-        <v>13266.49397346459</v>
+        <v>5670.057375726519</v>
       </c>
       <c r="R5">
-        <v>13266.49397346459</v>
+        <v>51030.51638153868</v>
       </c>
       <c r="S5">
-        <v>0.1619244813426119</v>
+        <v>0.05941354718680631</v>
       </c>
       <c r="T5">
-        <v>0.1619244813426119</v>
+        <v>0.0594135471868063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,1233 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>138.266027594224</v>
+        <v>17.94351233333333</v>
       </c>
       <c r="H6">
-        <v>138.266027594224</v>
+        <v>53.830537</v>
       </c>
       <c r="I6">
-        <v>0.5268073574840585</v>
+        <v>0.06412282349275147</v>
       </c>
       <c r="J6">
-        <v>0.5268073574840585</v>
+        <v>0.06412282349275145</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>312.161971943165</v>
+        <v>0.040154</v>
       </c>
       <c r="N6">
-        <v>312.161971943165</v>
+        <v>0.120462</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.000117739357997762</v>
       </c>
       <c r="Q6">
-        <v>43161.39582656103</v>
+        <v>0.7205037942326666</v>
       </c>
       <c r="R6">
-        <v>43161.39582656103</v>
+        <v>6.484534148093999</v>
       </c>
       <c r="S6">
-        <v>0.5268073574840585</v>
+        <v>7.549780071040367E-06</v>
       </c>
       <c r="T6">
-        <v>0.5268073574840585</v>
+        <v>7.549780071040364E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.94351233333333</v>
+      </c>
+      <c r="H7">
+        <v>53.830537</v>
+      </c>
+      <c r="I7">
+        <v>0.06412282349275147</v>
+      </c>
+      <c r="J7">
+        <v>0.06412282349275145</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N7">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P7">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q7">
+        <v>51.21123876831244</v>
+      </c>
+      <c r="R7">
+        <v>460.901148914812</v>
+      </c>
+      <c r="S7">
+        <v>0.000536615619461183</v>
+      </c>
+      <c r="T7">
+        <v>0.0005366156194611828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.94351233333333</v>
+      </c>
+      <c r="H8">
+        <v>53.830537</v>
+      </c>
+      <c r="I8">
+        <v>0.06412282349275147</v>
+      </c>
+      <c r="J8">
+        <v>0.06412282349275145</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.406132</v>
+      </c>
+      <c r="O8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P8">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q8">
+        <v>2.429144850320444</v>
+      </c>
+      <c r="R8">
+        <v>21.862303652884</v>
+      </c>
+      <c r="S8">
+        <v>2.545373046945731E-05</v>
+      </c>
+      <c r="T8">
+        <v>2.545373046945731E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.94351233333333</v>
+      </c>
+      <c r="H9">
+        <v>53.830537</v>
+      </c>
+      <c r="I9">
+        <v>0.06412282349275147</v>
+      </c>
+      <c r="J9">
+        <v>0.06412282349275145</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N9">
+        <v>1014.035645</v>
+      </c>
+      <c r="O9">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P9">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q9">
+        <v>6065.12036749904</v>
+      </c>
+      <c r="R9">
+        <v>54586.08330749136</v>
+      </c>
+      <c r="S9">
+        <v>0.06355320436274979</v>
+      </c>
+      <c r="T9">
+        <v>0.06355320436274976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>39.30638166666667</v>
+      </c>
+      <c r="H10">
+        <v>117.919145</v>
+      </c>
+      <c r="I10">
+        <v>0.1404650397831099</v>
+      </c>
+      <c r="J10">
+        <v>0.1404650397831098</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.040154</v>
+      </c>
+      <c r="N10">
+        <v>0.120462</v>
+      </c>
+      <c r="O10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P10">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q10">
+        <v>1.578308449443333</v>
+      </c>
+      <c r="R10">
+        <v>14.20477604499</v>
+      </c>
+      <c r="S10">
+        <v>1.653826360519345E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.653826360519345E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>39.30638166666667</v>
+      </c>
+      <c r="H11">
+        <v>117.919145</v>
+      </c>
+      <c r="I11">
+        <v>0.1404650397831099</v>
+      </c>
+      <c r="J11">
+        <v>0.1404650397831098</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N11">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P11">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q11">
+        <v>112.1814090383355</v>
+      </c>
+      <c r="R11">
+        <v>1009.63268134502</v>
+      </c>
+      <c r="S11">
+        <v>0.001175489946171409</v>
+      </c>
+      <c r="T11">
+        <v>0.001175489946171409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>39.30638166666667</v>
+      </c>
+      <c r="H12">
+        <v>117.919145</v>
+      </c>
+      <c r="I12">
+        <v>0.1404650397831099</v>
+      </c>
+      <c r="J12">
+        <v>0.1404650397831098</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.406132</v>
+      </c>
+      <c r="O12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P12">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q12">
+        <v>5.321193133015555</v>
+      </c>
+      <c r="R12">
+        <v>47.89073819714</v>
+      </c>
+      <c r="S12">
+        <v>5.575798238867383E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.575798238867382E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>39.30638166666667</v>
+      </c>
+      <c r="H13">
+        <v>117.919145</v>
+      </c>
+      <c r="I13">
+        <v>0.1404650397831099</v>
+      </c>
+      <c r="J13">
+        <v>0.1404650397831098</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N13">
+        <v>1014.035645</v>
+      </c>
+      <c r="O13">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P13">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q13">
+        <v>13286.02402865817</v>
+      </c>
+      <c r="R13">
+        <v>119574.2162579235</v>
+      </c>
+      <c r="S13">
+        <v>0.1392172535909446</v>
+      </c>
+      <c r="T13">
+        <v>0.1392172535909446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.17743033333333</v>
+      </c>
+      <c r="H14">
+        <v>129.532291</v>
+      </c>
+      <c r="I14">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="J14">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.040154</v>
+      </c>
+      <c r="N14">
+        <v>0.120462</v>
+      </c>
+      <c r="O14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P14">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q14">
+        <v>1.733746537604666</v>
+      </c>
+      <c r="R14">
+        <v>15.603718838442</v>
+      </c>
+      <c r="S14">
+        <v>1.816701752665037E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.816701752665037E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.17743033333333</v>
+      </c>
+      <c r="H15">
+        <v>129.532291</v>
+      </c>
+      <c r="I15">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="J15">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P15">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q15">
+        <v>123.2294799995684</v>
+      </c>
+      <c r="R15">
+        <v>1109.065319996116</v>
+      </c>
+      <c r="S15">
+        <v>0.001291256867364916</v>
+      </c>
+      <c r="T15">
+        <v>0.001291256867364916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.17743033333333</v>
+      </c>
+      <c r="H16">
+        <v>129.532291</v>
+      </c>
+      <c r="I16">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="J16">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.406132</v>
+      </c>
+      <c r="O16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P16">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q16">
+        <v>5.845245378712443</v>
+      </c>
+      <c r="R16">
+        <v>52.60720840841199</v>
+      </c>
+      <c r="S16">
+        <v>6.124925007167048E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.124925007167048E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.17743033333333</v>
+      </c>
+      <c r="H17">
+        <v>129.532291</v>
+      </c>
+      <c r="I17">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="J17">
+        <v>0.1542985950967704</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N17">
+        <v>1014.035645</v>
+      </c>
+      <c r="O17">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P17">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q17">
+        <v>14594.48447250141</v>
+      </c>
+      <c r="R17">
+        <v>131350.3602525127</v>
+      </c>
+      <c r="S17">
+        <v>0.1529279219618072</v>
+      </c>
+      <c r="T17">
+        <v>0.1529279219618072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>143.763153</v>
+      </c>
+      <c r="H18">
+        <v>431.289459</v>
+      </c>
+      <c r="I18">
+        <v>0.5137511047631063</v>
+      </c>
+      <c r="J18">
+        <v>0.5137511047631061</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.040154</v>
+      </c>
+      <c r="N18">
+        <v>0.120462</v>
+      </c>
+      <c r="O18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P18">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q18">
+        <v>5.772665645561998</v>
+      </c>
+      <c r="R18">
+        <v>51.95399081005799</v>
+      </c>
+      <c r="S18">
+        <v>6.048872524544908E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.048872524544907E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>143.763153</v>
+      </c>
+      <c r="H19">
+        <v>431.289459</v>
+      </c>
+      <c r="I19">
+        <v>0.5137511047631063</v>
+      </c>
+      <c r="J19">
+        <v>0.5137511047631061</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N19">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P19">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q19">
+        <v>410.3036806618759</v>
+      </c>
+      <c r="R19">
+        <v>3692.733125956883</v>
+      </c>
+      <c r="S19">
+        <v>0.004299356333903253</v>
+      </c>
+      <c r="T19">
+        <v>0.004299356333903253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>143.763153</v>
+      </c>
+      <c r="H20">
+        <v>431.289459</v>
+      </c>
+      <c r="I20">
+        <v>0.5137511047631063</v>
+      </c>
+      <c r="J20">
+        <v>0.5137511047631061</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.406132</v>
+      </c>
+      <c r="O20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P20">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q20">
+        <v>19.462272284732</v>
+      </c>
+      <c r="R20">
+        <v>175.160450562588</v>
+      </c>
+      <c r="S20">
+        <v>0.0002039349086133779</v>
+      </c>
+      <c r="T20">
+        <v>0.0002039349086133779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>143.763153</v>
+      </c>
+      <c r="H21">
+        <v>431.289459</v>
+      </c>
+      <c r="I21">
+        <v>0.5137511047631063</v>
+      </c>
+      <c r="J21">
+        <v>0.5137511047631061</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N21">
+        <v>1014.035645</v>
+      </c>
+      <c r="O21">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P21">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q21">
+        <v>48593.65385986288</v>
+      </c>
+      <c r="R21">
+        <v>437342.884738766</v>
+      </c>
+      <c r="S21">
+        <v>0.5091873247953441</v>
+      </c>
+      <c r="T21">
+        <v>0.5091873247953441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.86514766666667</v>
+      </c>
+      <c r="H22">
+        <v>56.595443</v>
+      </c>
+      <c r="I22">
+        <v>0.06741637375794853</v>
+      </c>
+      <c r="J22">
+        <v>0.0674163737579485</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.040154</v>
+      </c>
+      <c r="N22">
+        <v>0.120462</v>
+      </c>
+      <c r="O22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="P22">
+        <v>0.000117739357997762</v>
+      </c>
+      <c r="Q22">
+        <v>0.7575111394073333</v>
+      </c>
+      <c r="R22">
+        <v>6.817600254666</v>
+      </c>
+      <c r="S22">
+        <v>7.937560564798028E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.937560564798024E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.86514766666667</v>
+      </c>
+      <c r="H23">
+        <v>56.595443</v>
+      </c>
+      <c r="I23">
+        <v>0.06741637375794853</v>
+      </c>
+      <c r="J23">
+        <v>0.0674163737579485</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>2.854025333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.562075999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.008368558809981951</v>
+      </c>
+      <c r="P23">
+        <v>0.008368558809981953</v>
+      </c>
+      <c r="Q23">
+        <v>53.84160935774089</v>
+      </c>
+      <c r="R23">
+        <v>484.574484219668</v>
+      </c>
+      <c r="S23">
+        <v>0.0005641778885491161</v>
+      </c>
+      <c r="T23">
+        <v>0.000564177888549116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.86514766666667</v>
+      </c>
+      <c r="H24">
+        <v>56.595443</v>
+      </c>
+      <c r="I24">
+        <v>0.06741637375794853</v>
+      </c>
+      <c r="J24">
+        <v>0.0674163737579485</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1353773333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.406132</v>
+      </c>
+      <c r="O24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="P24">
+        <v>0.0003969527398046444</v>
+      </c>
+      <c r="Q24">
+        <v>2.553913384052889</v>
+      </c>
+      <c r="R24">
+        <v>22.985220456476</v>
+      </c>
+      <c r="S24">
+        <v>2.676111427091159E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.676111427091159E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>17.7768859467455</v>
-      </c>
-      <c r="H7">
-        <v>17.7768859467455</v>
-      </c>
-      <c r="I7">
-        <v>0.06773170874182047</v>
-      </c>
-      <c r="J7">
-        <v>0.06773170874182047</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="N7">
-        <v>312.161971943165</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>5549.267772144814</v>
-      </c>
-      <c r="R7">
-        <v>5549.267772144814</v>
-      </c>
-      <c r="S7">
-        <v>0.06773170874182047</v>
-      </c>
-      <c r="T7">
-        <v>0.06773170874182047</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.86514766666667</v>
+      </c>
+      <c r="H25">
+        <v>56.595443</v>
+      </c>
+      <c r="I25">
+        <v>0.06741637375794853</v>
+      </c>
+      <c r="J25">
+        <v>0.0674163737579485</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>338.0118816666666</v>
+      </c>
+      <c r="N25">
+        <v>1014.035645</v>
+      </c>
+      <c r="O25">
+        <v>0.9911167490922156</v>
+      </c>
+      <c r="P25">
+        <v>0.9911167490922157</v>
+      </c>
+      <c r="Q25">
+        <v>6376.644060729526</v>
+      </c>
+      <c r="R25">
+        <v>57389.79654656573</v>
+      </c>
+      <c r="S25">
+        <v>0.0668174971945637</v>
+      </c>
+      <c r="T25">
+        <v>0.06681749719456367</v>
       </c>
     </row>
   </sheetData>
